--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anto\CustomerScoops\chatgpt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3589AFFC-1C15-42DE-813A-FAC567A257E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B6D3C8-A12E-4F04-A381-DEFBF5370453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D96C8142-9743-4485-85A0-C73E2E9C0003}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9604" uniqueCount="5537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9823" uniqueCount="5538">
   <si>
     <t>Column1</t>
   </si>
@@ -16746,6 +16746,9 @@
   </si>
   <si>
     <t>sin contexto</t>
+  </si>
+  <si>
+    <t>si</t>
   </si>
 </sst>
 </file>
@@ -17140,8 +17143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C06FF538-DE00-4074-A3CF-EDB80F8B6246}">
   <dimension ref="A1:C4717"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A391" workbookViewId="0">
+      <selection activeCell="C391" sqref="C391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19036,7 +19039,9 @@
       <c r="B172" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C172" s="1"/>
+      <c r="C172" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
@@ -19045,7 +19050,9 @@
       <c r="B173" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C173" s="1"/>
+      <c r="C173" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
@@ -19054,7 +19061,9 @@
       <c r="B174" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C174" s="1"/>
+      <c r="C174" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
@@ -19063,7 +19072,9 @@
       <c r="B175" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C175" s="1"/>
+      <c r="C175" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
@@ -19072,7 +19083,9 @@
       <c r="B176" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C176" s="1"/>
+      <c r="C176" s="1" t="s">
+        <v>5534</v>
+      </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
@@ -19081,7 +19094,9 @@
       <c r="B177" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C177" s="1"/>
+      <c r="C177" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
@@ -19090,7 +19105,9 @@
       <c r="B178" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C178" s="1"/>
+      <c r="C178" s="1" t="s">
+        <v>5534</v>
+      </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
@@ -19099,7 +19116,9 @@
       <c r="B179" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C179" s="1"/>
+      <c r="C179" s="1" t="s">
+        <v>5536</v>
+      </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
@@ -19108,7 +19127,9 @@
       <c r="B180" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C180" s="1"/>
+      <c r="C180" s="1" t="s">
+        <v>5535</v>
+      </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
@@ -19117,7 +19138,9 @@
       <c r="B181" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C181" s="1"/>
+      <c r="C181" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
@@ -19126,7 +19149,9 @@
       <c r="B182" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C182" s="1"/>
+      <c r="C182" s="1" t="s">
+        <v>5534</v>
+      </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
@@ -19135,7 +19160,9 @@
       <c r="B183" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C183" s="1"/>
+      <c r="C183" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
@@ -19144,7 +19171,9 @@
       <c r="B184" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C184" s="1"/>
+      <c r="C184" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
@@ -19153,7 +19182,9 @@
       <c r="B185" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C185" s="1"/>
+      <c r="C185" s="1" t="s">
+        <v>5534</v>
+      </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
@@ -19162,7 +19193,9 @@
       <c r="B186" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C186" s="1"/>
+      <c r="C186" s="1" t="s">
+        <v>5534</v>
+      </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
@@ -19171,7 +19204,9 @@
       <c r="B187" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C187" s="1"/>
+      <c r="C187" s="1" t="s">
+        <v>5536</v>
+      </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
@@ -19180,7 +19215,9 @@
       <c r="B188" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C188" s="1"/>
+      <c r="C188" s="1" t="s">
+        <v>5536</v>
+      </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
@@ -19189,7 +19226,9 @@
       <c r="B189" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C189" s="1"/>
+      <c r="C189" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
@@ -19198,7 +19237,9 @@
       <c r="B190" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C190" s="1"/>
+      <c r="C190" s="1" t="s">
+        <v>5536</v>
+      </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
@@ -19207,7 +19248,9 @@
       <c r="B191" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C191" s="1"/>
+      <c r="C191" s="1" t="s">
+        <v>5534</v>
+      </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
@@ -19216,7 +19259,9 @@
       <c r="B192" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C192" s="1"/>
+      <c r="C192" s="1" t="s">
+        <v>5534</v>
+      </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
@@ -19225,7 +19270,9 @@
       <c r="B193" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C193" s="1"/>
+      <c r="C193" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
@@ -19234,7 +19281,9 @@
       <c r="B194" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C194" s="1"/>
+      <c r="C194" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
@@ -19243,7 +19292,9 @@
       <c r="B195" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C195" s="1"/>
+      <c r="C195" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
@@ -19252,7 +19303,9 @@
       <c r="B196" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C196" s="1"/>
+      <c r="C196" s="1" t="s">
+        <v>5534</v>
+      </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
@@ -19261,7 +19314,9 @@
       <c r="B197" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C197" s="1"/>
+      <c r="C197" s="1" t="s">
+        <v>5536</v>
+      </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
@@ -19270,7 +19325,9 @@
       <c r="B198" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C198" s="1"/>
+      <c r="C198" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
@@ -19279,7 +19336,9 @@
       <c r="B199" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C199" s="1"/>
+      <c r="C199" s="1" t="s">
+        <v>5536</v>
+      </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
@@ -19288,7 +19347,9 @@
       <c r="B200" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C200" s="1"/>
+      <c r="C200" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
@@ -19297,7 +19358,9 @@
       <c r="B201" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C201" s="1"/>
+      <c r="C201" s="1" t="s">
+        <v>5534</v>
+      </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
@@ -19306,7 +19369,9 @@
       <c r="B202" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C202" s="1"/>
+      <c r="C202" s="1" t="s">
+        <v>5536</v>
+      </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
@@ -19315,7 +19380,9 @@
       <c r="B203" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C203" s="1"/>
+      <c r="C203" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
@@ -19324,7 +19391,9 @@
       <c r="B204" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C204" s="1"/>
+      <c r="C204" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
@@ -19333,7 +19402,9 @@
       <c r="B205" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C205" s="1"/>
+      <c r="C205" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
@@ -19342,7 +19413,9 @@
       <c r="B206" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C206" s="1"/>
+      <c r="C206" s="1" t="s">
+        <v>5536</v>
+      </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
@@ -19351,7 +19424,9 @@
       <c r="B207" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C207" s="1"/>
+      <c r="C207" s="1" t="s">
+        <v>5536</v>
+      </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
@@ -19360,7 +19435,9 @@
       <c r="B208" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C208" s="1"/>
+      <c r="C208" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
@@ -19369,7 +19446,9 @@
       <c r="B209" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C209" s="1"/>
+      <c r="C209" s="1" t="s">
+        <v>5536</v>
+      </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
@@ -19378,7 +19457,9 @@
       <c r="B210" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C210" s="1"/>
+      <c r="C210" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
@@ -19387,7 +19468,9 @@
       <c r="B211" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C211" s="1"/>
+      <c r="C211" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
@@ -19396,7 +19479,9 @@
       <c r="B212" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C212" s="1"/>
+      <c r="C212" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
@@ -19405,7 +19490,9 @@
       <c r="B213" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C213" s="1"/>
+      <c r="C213" s="1" t="s">
+        <v>5536</v>
+      </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
@@ -19414,7 +19501,9 @@
       <c r="B214" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C214" s="1"/>
+      <c r="C214" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
@@ -19423,7 +19512,9 @@
       <c r="B215" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C215" s="1"/>
+      <c r="C215" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
@@ -19432,7 +19523,9 @@
       <c r="B216" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C216" s="1"/>
+      <c r="C216" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
@@ -19441,7 +19534,9 @@
       <c r="B217" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C217" s="1"/>
+      <c r="C217" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
@@ -19450,7 +19545,9 @@
       <c r="B218" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="C218" s="1"/>
+      <c r="C218" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
@@ -19459,7 +19556,9 @@
       <c r="B219" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C219" s="1"/>
+      <c r="C219" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
@@ -19468,7 +19567,9 @@
       <c r="B220" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C220" s="1"/>
+      <c r="C220" s="1" t="s">
+        <v>5535</v>
+      </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
@@ -19477,7 +19578,9 @@
       <c r="B221" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C221" s="1"/>
+      <c r="C221" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
@@ -19486,7 +19589,9 @@
       <c r="B222" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="C222" s="1"/>
+      <c r="C222" s="1" t="s">
+        <v>5536</v>
+      </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
@@ -19495,7 +19600,9 @@
       <c r="B223" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C223" s="1"/>
+      <c r="C223" s="1" t="s">
+        <v>5536</v>
+      </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
@@ -19504,7 +19611,9 @@
       <c r="B224" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C224" s="1"/>
+      <c r="C224" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
@@ -19513,7 +19622,9 @@
       <c r="B225" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C225" s="1"/>
+      <c r="C225" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
@@ -19522,7 +19633,9 @@
       <c r="B226" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C226" s="1"/>
+      <c r="C226" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
@@ -19531,7 +19644,9 @@
       <c r="B227" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C227" s="1"/>
+      <c r="C227" s="1" t="s">
+        <v>5534</v>
+      </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
@@ -19540,7 +19655,9 @@
       <c r="B228" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C228" s="1"/>
+      <c r="C228" s="1" t="s">
+        <v>5535</v>
+      </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
@@ -19549,7 +19666,9 @@
       <c r="B229" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C229" s="1"/>
+      <c r="C229" s="1" t="s">
+        <v>5535</v>
+      </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
@@ -19558,7 +19677,9 @@
       <c r="B230" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C230" s="1"/>
+      <c r="C230" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
@@ -19567,7 +19688,9 @@
       <c r="B231" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C231" s="1"/>
+      <c r="C231" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
@@ -19576,7 +19699,9 @@
       <c r="B232" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C232" s="1"/>
+      <c r="C232" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
@@ -19585,7 +19710,9 @@
       <c r="B233" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C233" s="1"/>
+      <c r="C233" s="1" t="s">
+        <v>5534</v>
+      </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
@@ -19594,7 +19721,9 @@
       <c r="B234" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C234" s="1"/>
+      <c r="C234" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
@@ -19603,7 +19732,9 @@
       <c r="B235" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C235" s="1"/>
+      <c r="C235" s="1" t="s">
+        <v>5536</v>
+      </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
@@ -19612,7 +19743,9 @@
       <c r="B236" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C236" s="1"/>
+      <c r="C236" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
@@ -19621,7 +19754,9 @@
       <c r="B237" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C237" s="1"/>
+      <c r="C237" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
@@ -19630,7 +19765,9 @@
       <c r="B238" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="C238" s="1"/>
+      <c r="C238" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
@@ -19639,7 +19776,9 @@
       <c r="B239" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C239" s="1"/>
+      <c r="C239" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
@@ -19648,7 +19787,9 @@
       <c r="B240" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="C240" s="1"/>
+      <c r="C240" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
@@ -19657,7 +19798,9 @@
       <c r="B241" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C241" s="1"/>
+      <c r="C241" s="1" t="s">
+        <v>5536</v>
+      </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
@@ -19666,7 +19809,9 @@
       <c r="B242" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C242" s="1"/>
+      <c r="C242" s="1" t="s">
+        <v>5536</v>
+      </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
@@ -19675,7 +19820,9 @@
       <c r="B243" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C243" s="1"/>
+      <c r="C243" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
@@ -19684,7 +19831,9 @@
       <c r="B244" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C244" s="1"/>
+      <c r="C244" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
@@ -19693,7 +19842,9 @@
       <c r="B245" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="C245" s="1"/>
+      <c r="C245" s="1" t="s">
+        <v>5536</v>
+      </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
@@ -19702,7 +19853,9 @@
       <c r="B246" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="C246" s="1"/>
+      <c r="C246" s="1" t="s">
+        <v>5536</v>
+      </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
@@ -19711,7 +19864,9 @@
       <c r="B247" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C247" s="1"/>
+      <c r="C247" s="1" t="s">
+        <v>5536</v>
+      </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
@@ -19720,7 +19875,9 @@
       <c r="B248" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C248" s="1"/>
+      <c r="C248" s="1" t="s">
+        <v>5536</v>
+      </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
@@ -19729,7 +19886,9 @@
       <c r="B249" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C249" s="1"/>
+      <c r="C249" s="1" t="s">
+        <v>5536</v>
+      </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
@@ -19738,7 +19897,9 @@
       <c r="B250" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="C250" s="1"/>
+      <c r="C250" s="1" t="s">
+        <v>5536</v>
+      </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
@@ -19747,7 +19908,9 @@
       <c r="B251" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C251" s="1"/>
+      <c r="C251" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
@@ -19756,7 +19919,9 @@
       <c r="B252" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C252" s="1"/>
+      <c r="C252" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
@@ -19765,7 +19930,9 @@
       <c r="B253" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="C253" s="1"/>
+      <c r="C253" s="1" t="s">
+        <v>5534</v>
+      </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
@@ -19774,7 +19941,9 @@
       <c r="B254" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="C254" s="1"/>
+      <c r="C254" s="1" t="s">
+        <v>5535</v>
+      </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
@@ -19783,7 +19952,9 @@
       <c r="B255" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C255" s="1"/>
+      <c r="C255" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
@@ -19792,7 +19963,9 @@
       <c r="B256" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C256" s="1"/>
+      <c r="C256" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
@@ -19801,7 +19974,9 @@
       <c r="B257" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C257" s="1"/>
+      <c r="C257" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
@@ -19810,7 +19985,9 @@
       <c r="B258" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="C258" s="1"/>
+      <c r="C258" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
@@ -19819,7 +19996,9 @@
       <c r="B259" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C259" s="1"/>
+      <c r="C259" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
@@ -19828,7 +20007,9 @@
       <c r="B260" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C260" s="1"/>
+      <c r="C260" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
@@ -19837,7 +20018,9 @@
       <c r="B261" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="C261" s="1"/>
+      <c r="C261" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
@@ -19846,7 +20029,9 @@
       <c r="B262" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C262" s="1"/>
+      <c r="C262" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
@@ -19855,7 +20040,9 @@
       <c r="B263" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C263" s="1"/>
+      <c r="C263" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
@@ -19864,7 +20051,9 @@
       <c r="B264" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C264" s="1"/>
+      <c r="C264" s="1" t="s">
+        <v>5534</v>
+      </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
@@ -19873,7 +20062,9 @@
       <c r="B265" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C265" s="1"/>
+      <c r="C265" s="1" t="s">
+        <v>5536</v>
+      </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
@@ -19882,7 +20073,9 @@
       <c r="B266" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C266" s="1"/>
+      <c r="C266" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
@@ -19891,7 +20084,9 @@
       <c r="B267" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C267" s="1"/>
+      <c r="C267" s="1" t="s">
+        <v>5536</v>
+      </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
@@ -19900,7 +20095,9 @@
       <c r="B268" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C268" s="1"/>
+      <c r="C268" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
@@ -19909,7 +20106,9 @@
       <c r="B269" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="C269" s="1"/>
+      <c r="C269" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
@@ -19918,7 +20117,9 @@
       <c r="B270" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C270" s="1"/>
+      <c r="C270" s="1" t="s">
+        <v>5534</v>
+      </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
@@ -19927,7 +20128,9 @@
       <c r="B271" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="C271" s="1"/>
+      <c r="C271" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
@@ -19936,7 +20139,9 @@
       <c r="B272" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C272" s="1"/>
+      <c r="C272" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
@@ -19945,7 +20150,9 @@
       <c r="B273" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C273" s="1"/>
+      <c r="C273" s="1" t="s">
+        <v>5536</v>
+      </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
@@ -19954,7 +20161,9 @@
       <c r="B274" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="C274" s="1"/>
+      <c r="C274" s="1" t="s">
+        <v>5534</v>
+      </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
@@ -19963,7 +20172,9 @@
       <c r="B275" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="C275" s="1"/>
+      <c r="C275" s="1" t="s">
+        <v>5534</v>
+      </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
@@ -19972,7 +20183,9 @@
       <c r="B276" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C276" s="1"/>
+      <c r="C276" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
@@ -19981,7 +20194,9 @@
       <c r="B277" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="C277" s="1"/>
+      <c r="C277" s="1" t="s">
+        <v>5534</v>
+      </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
@@ -19990,7 +20205,9 @@
       <c r="B278" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="C278" s="1"/>
+      <c r="C278" s="1" t="s">
+        <v>5534</v>
+      </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
@@ -19999,7 +20216,9 @@
       <c r="B279" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="C279" s="1"/>
+      <c r="C279" s="1" t="s">
+        <v>5534</v>
+      </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
@@ -20008,7 +20227,9 @@
       <c r="B280" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C280" s="1"/>
+      <c r="C280" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
@@ -20017,7 +20238,9 @@
       <c r="B281" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="C281" s="1"/>
+      <c r="C281" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
@@ -20026,7 +20249,9 @@
       <c r="B282" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C282" s="1"/>
+      <c r="C282" s="1" t="s">
+        <v>5536</v>
+      </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
@@ -20035,7 +20260,9 @@
       <c r="B283" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C283" s="1"/>
+      <c r="C283" s="1" t="s">
+        <v>5536</v>
+      </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
@@ -20044,7 +20271,9 @@
       <c r="B284" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="C284" s="1"/>
+      <c r="C284" s="1" t="s">
+        <v>5536</v>
+      </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
@@ -20053,7 +20282,9 @@
       <c r="B285" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="C285" s="1"/>
+      <c r="C285" s="1" t="s">
+        <v>5534</v>
+      </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
@@ -20062,7 +20293,9 @@
       <c r="B286" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C286" s="1"/>
+      <c r="C286" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
@@ -20071,7 +20304,9 @@
       <c r="B287" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C287" s="1"/>
+      <c r="C287" s="1" t="s">
+        <v>5534</v>
+      </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
@@ -20080,7 +20315,9 @@
       <c r="B288" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C288" s="1"/>
+      <c r="C288" s="1" t="s">
+        <v>5536</v>
+      </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
@@ -20089,7 +20326,9 @@
       <c r="B289" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="C289" s="1"/>
+      <c r="C289" s="1" t="s">
+        <v>5536</v>
+      </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
@@ -20098,7 +20337,9 @@
       <c r="B290" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C290" s="1"/>
+      <c r="C290" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
@@ -20107,7 +20348,9 @@
       <c r="B291" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="C291" s="1"/>
+      <c r="C291" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
@@ -20116,7 +20359,9 @@
       <c r="B292" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C292" s="1"/>
+      <c r="C292" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
@@ -20125,7 +20370,9 @@
       <c r="B293" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="C293" s="1"/>
+      <c r="C293" s="1" t="s">
+        <v>5534</v>
+      </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
@@ -20134,7 +20381,9 @@
       <c r="B294" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="C294" s="1"/>
+      <c r="C294" s="1" t="s">
+        <v>5535</v>
+      </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
@@ -20143,7 +20392,9 @@
       <c r="B295" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="C295" s="1"/>
+      <c r="C295" s="1" t="s">
+        <v>5536</v>
+      </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
@@ -20152,7 +20403,9 @@
       <c r="B296" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="C296" s="1"/>
+      <c r="C296" s="1" t="s">
+        <v>5536</v>
+      </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
@@ -20161,7 +20414,9 @@
       <c r="B297" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="C297" s="1"/>
+      <c r="C297" s="1" t="s">
+        <v>5536</v>
+      </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
@@ -20170,7 +20425,9 @@
       <c r="B298" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="C298" s="1"/>
+      <c r="C298" s="1" t="s">
+        <v>5536</v>
+      </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
@@ -20179,7 +20436,9 @@
       <c r="B299" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="C299" s="1"/>
+      <c r="C299" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
@@ -20188,7 +20447,9 @@
       <c r="B300" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="C300" s="1"/>
+      <c r="C300" s="1" t="s">
+        <v>5536</v>
+      </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
@@ -20197,7 +20458,9 @@
       <c r="B301" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C301" s="1"/>
+      <c r="C301" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
@@ -20206,7 +20469,9 @@
       <c r="B302" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C302" s="1"/>
+      <c r="C302" s="1" t="s">
+        <v>5534</v>
+      </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
@@ -20215,7 +20480,9 @@
       <c r="B303" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C303" s="1"/>
+      <c r="C303" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
@@ -20224,7 +20491,9 @@
       <c r="B304" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C304" s="1"/>
+      <c r="C304" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
@@ -20233,7 +20502,9 @@
       <c r="B305" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="C305" s="1"/>
+      <c r="C305" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
@@ -20242,7 +20513,9 @@
       <c r="B306" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="C306" s="1"/>
+      <c r="C306" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
@@ -20251,7 +20524,9 @@
       <c r="B307" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C307" s="1"/>
+      <c r="C307" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
@@ -20260,7 +20535,9 @@
       <c r="B308" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C308" s="1"/>
+      <c r="C308" s="1" t="s">
+        <v>5536</v>
+      </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
@@ -20269,7 +20546,9 @@
       <c r="B309" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C309" s="1"/>
+      <c r="C309" s="1" t="s">
+        <v>5536</v>
+      </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
@@ -20278,7 +20557,9 @@
       <c r="B310" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="C310" s="1"/>
+      <c r="C310" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
@@ -20287,7 +20568,9 @@
       <c r="B311" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="C311" s="1"/>
+      <c r="C311" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
@@ -20296,7 +20579,9 @@
       <c r="B312" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="C312" s="1"/>
+      <c r="C312" s="1" t="s">
+        <v>5536</v>
+      </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
@@ -20305,7 +20590,9 @@
       <c r="B313" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="C313" s="1"/>
+      <c r="C313" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
@@ -20314,7 +20601,9 @@
       <c r="B314" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="C314" s="1"/>
+      <c r="C314" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
@@ -20323,7 +20612,9 @@
       <c r="B315" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="C315" s="1"/>
+      <c r="C315" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
@@ -20332,7 +20623,9 @@
       <c r="B316" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="C316" s="1"/>
+      <c r="C316" s="1" t="s">
+        <v>5536</v>
+      </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
@@ -20341,7 +20634,9 @@
       <c r="B317" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="C317" s="1"/>
+      <c r="C317" s="1" t="s">
+        <v>5536</v>
+      </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
@@ -20350,7 +20645,9 @@
       <c r="B318" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="C318" s="1"/>
+      <c r="C318" s="1" t="s">
+        <v>5536</v>
+      </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
@@ -20359,7 +20656,9 @@
       <c r="B319" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="C319" s="1"/>
+      <c r="C319" s="1" t="s">
+        <v>5536</v>
+      </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
@@ -20368,7 +20667,9 @@
       <c r="B320" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="C320" s="1"/>
+      <c r="C320" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
@@ -20377,7 +20678,9 @@
       <c r="B321" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="C321" s="1"/>
+      <c r="C321" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
@@ -20386,7 +20689,9 @@
       <c r="B322" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="C322" s="1"/>
+      <c r="C322" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
@@ -20395,7 +20700,9 @@
       <c r="B323" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C323" s="1"/>
+      <c r="C323" s="1" t="s">
+        <v>5536</v>
+      </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
@@ -20404,7 +20711,9 @@
       <c r="B324" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="C324" s="1"/>
+      <c r="C324" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
@@ -20413,7 +20722,9 @@
       <c r="B325" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="C325" s="1"/>
+      <c r="C325" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
@@ -20422,7 +20733,9 @@
       <c r="B326" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="C326" s="1"/>
+      <c r="C326" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
@@ -20431,7 +20744,9 @@
       <c r="B327" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="C327" s="1"/>
+      <c r="C327" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
@@ -20440,7 +20755,9 @@
       <c r="B328" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="C328" s="1"/>
+      <c r="C328" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
@@ -20449,7 +20766,9 @@
       <c r="B329" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="C329" s="1"/>
+      <c r="C329" s="1" t="s">
+        <v>5534</v>
+      </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
@@ -20458,7 +20777,9 @@
       <c r="B330" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="C330" s="1"/>
+      <c r="C330" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
@@ -20467,7 +20788,9 @@
       <c r="B331" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C331" s="1"/>
+      <c r="C331" s="1" t="s">
+        <v>5536</v>
+      </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
@@ -20476,7 +20799,9 @@
       <c r="B332" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="C332" s="1"/>
+      <c r="C332" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
@@ -20485,7 +20810,9 @@
       <c r="B333" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="C333" s="1"/>
+      <c r="C333" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
@@ -20494,7 +20821,9 @@
       <c r="B334" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="C334" s="1"/>
+      <c r="C334" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
@@ -20503,7 +20832,9 @@
       <c r="B335" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="C335" s="1"/>
+      <c r="C335" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
@@ -20512,7 +20843,9 @@
       <c r="B336" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="C336" s="1"/>
+      <c r="C336" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
@@ -20521,7 +20854,9 @@
       <c r="B337" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="C337" s="1"/>
+      <c r="C337" s="1" t="s">
+        <v>5536</v>
+      </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
@@ -20530,7 +20865,9 @@
       <c r="B338" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="C338" s="1"/>
+      <c r="C338" s="1" t="s">
+        <v>5536</v>
+      </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
@@ -20539,7 +20876,9 @@
       <c r="B339" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="C339" s="1"/>
+      <c r="C339" s="1" t="s">
+        <v>5536</v>
+      </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
@@ -20548,7 +20887,9 @@
       <c r="B340" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C340" s="1"/>
+      <c r="C340" s="1" t="s">
+        <v>5536</v>
+      </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
@@ -20557,7 +20898,9 @@
       <c r="B341" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="C341" s="1"/>
+      <c r="C341" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
@@ -20566,7 +20909,9 @@
       <c r="B342" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="C342" s="1"/>
+      <c r="C342" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
@@ -20575,7 +20920,9 @@
       <c r="B343" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="C343" s="1"/>
+      <c r="C343" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
@@ -20584,7 +20931,9 @@
       <c r="B344" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="C344" s="1"/>
+      <c r="C344" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
@@ -20593,7 +20942,9 @@
       <c r="B345" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="C345" s="1"/>
+      <c r="C345" s="1" t="s">
+        <v>5534</v>
+      </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
@@ -20602,7 +20953,9 @@
       <c r="B346" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="C346" s="1"/>
+      <c r="C346" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
@@ -20611,7 +20964,9 @@
       <c r="B347" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="C347" s="1"/>
+      <c r="C347" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
@@ -20620,7 +20975,9 @@
       <c r="B348" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="C348" s="1"/>
+      <c r="C348" s="1" t="s">
+        <v>5536</v>
+      </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
@@ -20629,7 +20986,9 @@
       <c r="B349" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C349" s="1"/>
+      <c r="C349" s="1" t="s">
+        <v>5536</v>
+      </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
@@ -20638,7 +20997,9 @@
       <c r="B350" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="C350" s="1"/>
+      <c r="C350" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
@@ -20647,7 +21008,9 @@
       <c r="B351" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C351" s="1"/>
+      <c r="C351" s="1" t="s">
+        <v>5536</v>
+      </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
@@ -20656,7 +21019,9 @@
       <c r="B352" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C352" s="1"/>
+      <c r="C352" s="1" t="s">
+        <v>5536</v>
+      </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
@@ -20665,7 +21030,9 @@
       <c r="B353" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="C353" s="1"/>
+      <c r="C353" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
@@ -20674,7 +21041,9 @@
       <c r="B354" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C354" s="1"/>
+      <c r="C354" s="1" t="s">
+        <v>5536</v>
+      </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
@@ -20683,7 +21052,9 @@
       <c r="B355" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="C355" s="1"/>
+      <c r="C355" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
@@ -20692,7 +21063,9 @@
       <c r="B356" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="C356" s="1"/>
+      <c r="C356" s="1" t="s">
+        <v>5534</v>
+      </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
@@ -20701,7 +21074,9 @@
       <c r="B357" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="C357" s="1"/>
+      <c r="C357" s="1" t="s">
+        <v>5536</v>
+      </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
@@ -20710,7 +21085,9 @@
       <c r="B358" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="C358" s="1"/>
+      <c r="C358" s="1" t="s">
+        <v>5536</v>
+      </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
@@ -20719,7 +21096,9 @@
       <c r="B359" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="C359" s="1"/>
+      <c r="C359" s="1" t="s">
+        <v>5536</v>
+      </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
@@ -20728,7 +21107,9 @@
       <c r="B360" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="C360" s="1"/>
+      <c r="C360" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
@@ -20737,7 +21118,9 @@
       <c r="B361" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C361" s="1"/>
+      <c r="C361" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
@@ -20746,7 +21129,9 @@
       <c r="B362" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="C362" s="1"/>
+      <c r="C362" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
@@ -20755,7 +21140,9 @@
       <c r="B363" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="C363" s="1"/>
+      <c r="C363" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
@@ -20764,7 +21151,9 @@
       <c r="B364" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="C364" s="1"/>
+      <c r="C364" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
@@ -20773,7 +21162,9 @@
       <c r="B365" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C365" s="1"/>
+      <c r="C365" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
@@ -20782,7 +21173,9 @@
       <c r="B366" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="C366" s="1"/>
+      <c r="C366" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
@@ -20791,7 +21184,9 @@
       <c r="B367" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="C367" s="1"/>
+      <c r="C367" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
@@ -20800,7 +21195,9 @@
       <c r="B368" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C368" s="1"/>
+      <c r="C368" s="1" t="s">
+        <v>5536</v>
+      </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
@@ -20809,7 +21206,9 @@
       <c r="B369" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="C369" s="1"/>
+      <c r="C369" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
@@ -20818,7 +21217,9 @@
       <c r="B370" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="C370" s="1"/>
+      <c r="C370" s="1" t="s">
+        <v>5534</v>
+      </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
@@ -20827,7 +21228,9 @@
       <c r="B371" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C371" s="1"/>
+      <c r="C371" s="1" t="s">
+        <v>5536</v>
+      </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
@@ -20836,7 +21239,9 @@
       <c r="B372" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="C372" s="1"/>
+      <c r="C372" s="1" t="s">
+        <v>5536</v>
+      </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
@@ -20845,7 +21250,9 @@
       <c r="B373" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="C373" s="1"/>
+      <c r="C373" s="1" t="s">
+        <v>5536</v>
+      </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
@@ -20854,7 +21261,9 @@
       <c r="B374" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="C374" s="1"/>
+      <c r="C374" s="1" t="s">
+        <v>5536</v>
+      </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
@@ -20863,7 +21272,9 @@
       <c r="B375" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="C375" s="1"/>
+      <c r="C375" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
@@ -20872,7 +21283,9 @@
       <c r="B376" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C376" s="1"/>
+      <c r="C376" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
@@ -20881,7 +21294,9 @@
       <c r="B377" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="C377" s="1"/>
+      <c r="C377" s="1" t="s">
+        <v>5536</v>
+      </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
@@ -20890,7 +21305,9 @@
       <c r="B378" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="C378" s="1"/>
+      <c r="C378" s="1" t="s">
+        <v>5537</v>
+      </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
@@ -20899,7 +21316,9 @@
       <c r="B379" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="C379" s="1"/>
+      <c r="C379" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
@@ -20908,7 +21327,9 @@
       <c r="B380" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="C380" s="1"/>
+      <c r="C380" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
@@ -20917,7 +21338,9 @@
       <c r="B381" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="C381" s="1"/>
+      <c r="C381" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
@@ -20926,7 +21349,9 @@
       <c r="B382" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="C382" s="1"/>
+      <c r="C382" s="1" t="s">
+        <v>5536</v>
+      </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
@@ -20935,7 +21360,9 @@
       <c r="B383" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C383" s="1"/>
+      <c r="C383" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
@@ -20944,7 +21371,9 @@
       <c r="B384" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="C384" s="1"/>
+      <c r="C384" s="1" t="s">
+        <v>5536</v>
+      </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
@@ -20953,7 +21382,9 @@
       <c r="B385" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C385" s="1"/>
+      <c r="C385" s="1" t="s">
+        <v>5536</v>
+      </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
@@ -20962,7 +21393,9 @@
       <c r="B386" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="C386" s="1"/>
+      <c r="C386" s="1" t="s">
+        <v>5534</v>
+      </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
@@ -20971,7 +21404,9 @@
       <c r="B387" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="C387" s="1"/>
+      <c r="C387" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
@@ -20980,7 +21415,9 @@
       <c r="B388" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="C388" s="1"/>
+      <c r="C388" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
@@ -20989,7 +21426,9 @@
       <c r="B389" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="C389" s="1"/>
+      <c r="C389" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
@@ -20998,7 +21437,9 @@
       <c r="B390" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="C390" s="1"/>
+      <c r="C390" s="1" t="s">
+        <v>5532</v>
+      </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
